--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375987.223066352</v>
+        <v>-1378366.894268379</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836226</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>111.0492602500547</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>131.1606275198609</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>53.5188112669079</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.20576589101008</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.30104224937686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>129.0131642449427</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>287.10929426734</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>146.4538219748019</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6854918269128</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>352.057234871127</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>189.8595359871535</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.27833349215649</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.34166800730464</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>41.20483001359389</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>68.09075284103353</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>55.78257056573339</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,7 +2056,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.9839462079636</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098733976844</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004763</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>50.93328119988419</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098733976844</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.77808571120949</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888069</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>14.10967693124361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,7 +2770,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.0633545968137</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433926</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124633</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3424,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124552</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>920.8647213085706</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>551.9022043681589</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>551.9022043681589</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>166.1139517699146</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2509.634919205422</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2291.000252177485</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2037.238466815576</v>
       </c>
       <c r="V2" t="n">
-        <v>2158.121723180868</v>
+        <v>2037.238466815576</v>
       </c>
       <c r="W2" t="n">
-        <v>2158.121723180868</v>
+        <v>1684.469811545462</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.121723180868</v>
+        <v>1311.004053284382</v>
       </c>
       <c r="Y2" t="n">
-        <v>2108.418929351565</v>
+        <v>920.8647213085706</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2386.59698879661</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2566.832763498078</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2313.07097813617</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.974595209434</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>501.1739419570274</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>246.4894537511405</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>246.4894537511405</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511405</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511405</v>
+        <v>351.9927747426011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.97203927339</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1391.97203927339</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1391.97203927339</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2450.343092470783</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2119.280205127212</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.97203927339</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272.8312459770187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>272.8312459770187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>272.8312459770187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750361</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750361</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.8312459770187</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,10 +5024,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.1835515663147</v>
+        <v>688.4805750348107</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>519.5443921069038</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>369.4277526945681</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>221.514659112175</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>221.514659112175</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>221.514659112175</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1723.036541513758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1433.933674639402</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1179.249186433515</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>889.8320163965544</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X13" t="n">
-        <v>889.8320163965544</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.8320163965544</v>
+        <v>688.4805750348107</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5285,16 +5285,16 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.7209910686896</v>
+        <v>658.8294814682021</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7848081407827</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D16" t="n">
-        <v>388.668168728447</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1887.564927881438</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1695.879043708264</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1695.879043708264</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1406.776176833907</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1406.776176833907</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>1117.359006796947</v>
+        <v>1107.61161150975</v>
       </c>
       <c r="X16" t="n">
-        <v>889.3694558989293</v>
+        <v>879.6220606117322</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3694558989293</v>
+        <v>658.8294814682021</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,16 +5519,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468568</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5622,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7429179653792</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295169</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>998.7893082582084</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>998.7893082582084</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.3913827956189</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074186</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972631</v>
+        <v>637.8590697562956</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750616</v>
+        <v>1088.893283004705</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580441</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807085</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750063</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107239</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.59277249732</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216193</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320206</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454334</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008787</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142684</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902941</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.10246054954</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862225</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.065250074463</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1593.298634643989</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U22" t="n">
-        <v>1593.298634643989</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1338.614146438102</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.614146438102</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.624595540085</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.8320163965544</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551628</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972631</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.29375234567</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175496</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N23" t="n">
-        <v>3027.59632740214</v>
+        <v>2749.983578264601</v>
       </c>
       <c r="O23" t="n">
-        <v>3907.560977731592</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107239</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.59277249732</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216193</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320206</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454334</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008787</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142684</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902941</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.10246054954</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5901955154717</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C25" t="n">
-        <v>283.6540125875648</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>283.6540125875648</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>135.7409190051717</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>135.7409190051717</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>135.7409190051717</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104697</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104697</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674223</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799867</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.78949559398</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570192</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590018</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154717</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>913.1101661838552</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1364.144379432264</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>1897.676284104189</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6279,70 +6279,70 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.7329138614817</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>554.7329138614817</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>404.616274449146</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>256.7031808667529</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>109.8132333688425</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>109.8132333688425</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>964.3709295897388</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>736.3813786917215</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.3813786917215</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6470,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6494,13 +6494,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819766</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>413.1422297553291</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1067.865561890629</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1518.899775139038</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932527</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160453</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819764</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,52 +6935,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7123,22 +7123,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2730.49472550168</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819759</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122056</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,7 +7591,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7652,22 +7652,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580449</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7731,7 +7731,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7789,10 +7789,10 @@
         <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,7 +7807,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499223</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>308.452974929212</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8933,19 +8933,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,19 +9167,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>19.79750571619076</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400441</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-1.428190898877801e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.261923898709938e-11</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>231.5010718068617</v>
       </c>
       <c r="P23" t="n">
-        <v>170.1140909277487</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-1.428190898877801e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.261923898709938e-11</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,16 +9875,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>128.7323010770059</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>420.2833968404726</v>
       </c>
       <c r="N29" t="n">
-        <v>124.0833809162815</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>130.0020851999084</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>288.0478149561043</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>135.6385654278978</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>251.1867816683989</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>183.0848540075451</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,25 +11300,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>400.597686978939</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>295.8267854916568</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.233447203227</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229285</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>116.4133469070161</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3441192625753</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.8413998290138</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>230.7404277708576</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164513</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.60070714413123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.8357441315578</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>104.9769292031114</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004763</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>73.85778156328786</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>130.6453379830772</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.343814490393903e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-6.323830348264892e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129677.0210573686</v>
+        <v>129677.0210573685</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>138978.6254104441</v>
       </c>
       <c r="F2" t="n">
+        <v>138978.6254104442</v>
+      </c>
+      <c r="G2" t="n">
+        <v>138978.625410444</v>
+      </c>
+      <c r="H2" t="n">
         <v>138978.6254104441</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>138978.6254104441</v>
-      </c>
-      <c r="H2" t="n">
-        <v>138978.625410444</v>
-      </c>
-      <c r="I2" t="n">
-        <v>138978.625410444</v>
       </c>
       <c r="J2" t="n">
         <v>138978.6254104441</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.118959171775108e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925956</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>37580.10929487406</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487408</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137670.0716798396</v>
+        <v>137670.0716798392</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918989</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231919019</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231919019</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="L4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="N4" t="n">
         <v>33605.653297409</v>
       </c>
-      <c r="M4" t="n">
-        <v>33605.65329740898</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740896</v>
-      </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-680820.007900425</v>
+        <v>-681020.0834528372</v>
       </c>
       <c r="C6" t="n">
-        <v>-122525.4551942877</v>
+        <v>-122525.4551942876</v>
       </c>
       <c r="D6" t="n">
-        <v>-122525.4551942877</v>
+        <v>-122525.4551942878</v>
       </c>
       <c r="E6" t="n">
-        <v>-702930.799155866</v>
+        <v>-702997.9946460921</v>
       </c>
       <c r="F6" t="n">
-        <v>24446.61483754053</v>
+        <v>24379.41934731486</v>
       </c>
       <c r="G6" t="n">
-        <v>24446.61483754053</v>
+        <v>24379.41934731465</v>
       </c>
       <c r="H6" t="n">
-        <v>24446.61483754306</v>
+        <v>24379.41934731471</v>
       </c>
       <c r="I6" t="n">
-        <v>24446.61483754024</v>
+        <v>24379.41934731474</v>
       </c>
       <c r="J6" t="n">
-        <v>-151976.6043550551</v>
+        <v>-152043.7998452782</v>
       </c>
       <c r="K6" t="n">
         <v>-27836.12388013545</v>
       </c>
       <c r="L6" t="n">
-        <v>9743.985414738592</v>
+        <v>9743.985414738621</v>
       </c>
       <c r="M6" t="n">
-        <v>-119898.3294242061</v>
+        <v>-119898.3294242062</v>
       </c>
       <c r="N6" t="n">
-        <v>9743.985414738636</v>
+        <v>9743.985414738563</v>
       </c>
       <c r="O6" t="n">
-        <v>9743.985414738592</v>
+        <v>9743.985414738549</v>
       </c>
       <c r="P6" t="n">
-        <v>-27836.12388013545</v>
+        <v>-27836.12388013548</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>46.97513661859259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.170734645643584e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>43.25508528911067</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>337.0321727650435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.2836111027179</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>87.43515611271513</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>82.62180641112906</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>20.79299912382592</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>61.59638241506497</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.87313520113474</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>61.36463152113581</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>75.15562915441268</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,13 +28141,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681583</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844653</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953976</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003791</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781674</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451114</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233455</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970232</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311873</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297385</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909881</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802161</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895875</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712186</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681583</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844653</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953976</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003791</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781674</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451114</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233455</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970232</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311873</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297385</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909881</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802161</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895875</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712186</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,10 +34451,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>860.7548103421235</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35653,19 +35653,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q14" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35887,19 +35887,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687113</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553986</v>
+        <v>356.9887922715915</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427802</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230566</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N20" t="n">
-        <v>989.648759824893</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282608</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193697</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037179</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222387</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597637</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013271</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865553986</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923298</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230566</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>989.648759824893</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509621</v>
+        <v>739.5540726950811</v>
       </c>
       <c r="P23" t="n">
-        <v>568.8760771471184</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037179</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222387</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597637</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013271</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>465.9235876324064</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>743.6379293484351</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>959.2045126706992</v>
       </c>
       <c r="N29" t="n">
-        <v>676.385216329193</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>320.7890861686209</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690155</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>643.6915663161168</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>759.2397825566179</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>691.1378548957641</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>856.1878013712709</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
